--- a/dataTable.xlsx
+++ b/dataTable.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kotawski\Coding\estimationCenter\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/SATECHI/Programowanie/MyIdeas/estimation_center/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B55795F-5399-4306-8B58-FD7C4AEEEA27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC75BBBD-2810-4248-B5EE-4D9B3C541C87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F53F1143-5114-4282-8AF3-5DBDBA634C13}"/>
+    <workbookView xWindow="55740" yWindow="8060" windowWidth="29040" windowHeight="15840" xr2:uid="{F53F1143-5114-4282-8AF3-5DBDBA634C13}"/>
   </bookViews>
   <sheets>
-    <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
+    <sheet name="EC" sheetId="2" r:id="rId1"/>
+    <sheet name="Arkusz1" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +28,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="52">
   <si>
     <t>Nazwa</t>
   </si>
@@ -63,6 +63,135 @@
   </si>
   <si>
     <t>Active</t>
+  </si>
+  <si>
+    <t>powierzchnia działki</t>
+  </si>
+  <si>
+    <t>powierzchnia nadziemia</t>
+  </si>
+  <si>
+    <t>powierzchnia podziemia</t>
+  </si>
+  <si>
+    <t>powierzchnia niezabudowana dzialki</t>
+  </si>
+  <si>
+    <t>powierzchnia dachów</t>
+  </si>
+  <si>
+    <t>powierzchnia elewacji</t>
+  </si>
+  <si>
+    <t>powierzchnia netto</t>
+  </si>
+  <si>
+    <t>powierzchnia netto podziemia</t>
+  </si>
+  <si>
+    <t>powierzchnia netto nadziemia</t>
+  </si>
+  <si>
+    <t>pum i puu</t>
+  </si>
+  <si>
+    <t>pum</t>
+  </si>
+  <si>
+    <t>puu</t>
+  </si>
+  <si>
+    <t>powierzchnie wspolne nadziemia</t>
+  </si>
+  <si>
+    <t>powierzchnia garazu w nadziemiu</t>
+  </si>
+  <si>
+    <t>liczba kondygnacji</t>
+  </si>
+  <si>
+    <t>liczba miejsc parkingowych</t>
+  </si>
+  <si>
+    <t>liczba parkliftow</t>
+  </si>
+  <si>
+    <t>ilosc mieszkan</t>
+  </si>
+  <si>
+    <t>srednia powierzchnia mieszkania</t>
+  </si>
+  <si>
+    <t>udzial powierzchni wspolnych nadziemia</t>
+  </si>
+  <si>
+    <t>pow podziemia do pum i puu</t>
+  </si>
+  <si>
+    <t>n01</t>
+  </si>
+  <si>
+    <t>n03</t>
+  </si>
+  <si>
+    <t>roboty ziemne</t>
+  </si>
+  <si>
+    <t>konstrukcja podziemia</t>
+  </si>
+  <si>
+    <t>konstrukcja nadziemia</t>
+  </si>
+  <si>
+    <t>elewacje</t>
+  </si>
+  <si>
+    <t>dachy</t>
+  </si>
+  <si>
+    <t>wykonczenie nadziemia</t>
+  </si>
+  <si>
+    <t>wykonczenie podziemia</t>
+  </si>
+  <si>
+    <t>windy</t>
+  </si>
+  <si>
+    <t>instalacje klimatyzacyjne</t>
+  </si>
+  <si>
+    <t>instalacje wodno kanalizacyjne</t>
+  </si>
+  <si>
+    <t>instalacje gazowe</t>
+  </si>
+  <si>
+    <t>instalacje elektryczne</t>
+  </si>
+  <si>
+    <t>instalacje teletechniczne</t>
+  </si>
+  <si>
+    <t>infrastruktura</t>
+  </si>
+  <si>
+    <t>dfa</t>
+  </si>
+  <si>
+    <t>sieci</t>
+  </si>
+  <si>
+    <t>koszty budowy</t>
+  </si>
+  <si>
+    <t>bhp</t>
+  </si>
+  <si>
+    <t>offset poza dzialka</t>
+  </si>
+  <si>
+    <t>Zielona</t>
   </si>
 </sst>
 </file>
@@ -451,16 +580,413 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA469301-F209-9D44-A8FF-0D359AB0CA09}">
+  <dimension ref="A1:B47"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="31.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="304" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1">
+        <v>6500</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>34</v>
+      </c>
+      <c r="B31">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>35</v>
+      </c>
+      <c r="B32">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>36</v>
+      </c>
+      <c r="B33">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>37</v>
+      </c>
+      <c r="B34">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>38</v>
+      </c>
+      <c r="B35">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>39</v>
+      </c>
+      <c r="B36">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>40</v>
+      </c>
+      <c r="B37">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>41</v>
+      </c>
+      <c r="B38">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>42</v>
+      </c>
+      <c r="B39">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>43</v>
+      </c>
+      <c r="B40">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>44</v>
+      </c>
+      <c r="B41">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>45</v>
+      </c>
+      <c r="B42">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>46</v>
+      </c>
+      <c r="B43">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>47</v>
+      </c>
+      <c r="B44">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>48</v>
+      </c>
+      <c r="B45">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>49</v>
+      </c>
+      <c r="B46">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>50</v>
+      </c>
+      <c r="B47">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{2F99D9AA-CE6D-E44E-A465-8CF696DB70DC}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC6C2E5A-5C54-4A8C-87AB-8BA0F1E3717A}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="15.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -477,7 +1003,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="1" customFormat="1" ht="195" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" s="1" customFormat="1" ht="208" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
